--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H2">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.4675927335579</v>
+        <v>5.553617333333334</v>
       </c>
       <c r="N2">
-        <v>5.4675927335579</v>
+        <v>16.660852</v>
       </c>
       <c r="O2">
-        <v>0.6873002371227342</v>
+        <v>0.6738463085322981</v>
       </c>
       <c r="P2">
-        <v>0.6873002371227342</v>
+        <v>0.6738463085322983</v>
       </c>
       <c r="Q2">
-        <v>5.616350050847495</v>
+        <v>6.330603571176445</v>
       </c>
       <c r="R2">
-        <v>5.616350050847495</v>
+        <v>56.975432140588</v>
       </c>
       <c r="S2">
-        <v>0.1470862803083945</v>
+        <v>0.1468000227279598</v>
       </c>
       <c r="T2">
-        <v>0.1470862803083945</v>
+        <v>0.1468000227279598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H3">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.304192956512</v>
+        <v>2.371913666666666</v>
       </c>
       <c r="N3">
-        <v>2.304192956512</v>
+        <v>7.115741</v>
       </c>
       <c r="O3">
-        <v>0.2896470974634382</v>
+        <v>0.2877953543625453</v>
       </c>
       <c r="P3">
-        <v>0.2896470974634382</v>
+        <v>0.2877953543625454</v>
       </c>
       <c r="Q3">
-        <v>2.366883354175408</v>
+        <v>2.703759410753222</v>
       </c>
       <c r="R3">
-        <v>2.366883354175408</v>
+        <v>24.333834696779</v>
       </c>
       <c r="S3">
-        <v>0.06198617702559049</v>
+        <v>0.06269733027616325</v>
       </c>
       <c r="T3">
-        <v>0.06198617702559049</v>
+        <v>0.06269733027616325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H4">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0681846043648804</v>
+        <v>0.075423</v>
       </c>
       <c r="N4">
-        <v>0.0681846043648804</v>
+        <v>0.226269</v>
       </c>
       <c r="O4">
-        <v>0.008571101951407962</v>
+        <v>0.009151424572122395</v>
       </c>
       <c r="P4">
-        <v>0.008571101951407962</v>
+        <v>0.009151424572122398</v>
       </c>
       <c r="Q4">
-        <v>0.07003970940288341</v>
+        <v>0.085975155379</v>
       </c>
       <c r="R4">
-        <v>0.07003970940288341</v>
+        <v>0.7737763984109999</v>
       </c>
       <c r="S4">
-        <v>0.001834266069009796</v>
+        <v>0.001993673213268609</v>
       </c>
       <c r="T4">
-        <v>0.001834266069009796</v>
+        <v>0.001993673213268609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H5">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.11520335201564</v>
+        <v>0.11184</v>
       </c>
       <c r="N5">
-        <v>0.11520335201564</v>
+        <v>0.33552</v>
       </c>
       <c r="O5">
-        <v>0.01448156346241964</v>
+        <v>0.01357006913204418</v>
       </c>
       <c r="P5">
-        <v>0.01448156346241964</v>
+        <v>0.01357006913204419</v>
       </c>
       <c r="Q5">
-        <v>0.118337700608108</v>
+        <v>0.12748712432</v>
       </c>
       <c r="R5">
-        <v>0.118337700608108</v>
+        <v>1.14738411888</v>
       </c>
       <c r="S5">
-        <v>0.003099139484738586</v>
+        <v>0.002956292008697097</v>
       </c>
       <c r="T5">
-        <v>0.003099139484738586</v>
+        <v>0.002956292008697098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.77594925762357</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H6">
-        <v>1.77594925762357</v>
+        <v>3.419719</v>
       </c>
       <c r="I6">
-        <v>0.3699970093785487</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J6">
-        <v>0.3699970093785487</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.4675927335579</v>
+        <v>0.1288736666666667</v>
       </c>
       <c r="N6">
-        <v>5.4675927335579</v>
+        <v>0.386621</v>
       </c>
       <c r="O6">
-        <v>0.6873002371227342</v>
+        <v>0.01563684340098967</v>
       </c>
       <c r="P6">
-        <v>0.6873002371227342</v>
+        <v>0.01563684340098968</v>
       </c>
       <c r="Q6">
-        <v>9.710167256150179</v>
+        <v>0.1469039088332222</v>
       </c>
       <c r="R6">
-        <v>9.710167256150179</v>
+        <v>1.322135179499</v>
       </c>
       <c r="S6">
-        <v>0.2542990322805791</v>
+        <v>0.003406546771263951</v>
       </c>
       <c r="T6">
-        <v>0.2542990322805791</v>
+        <v>0.003406546771263951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.304192956512</v>
+        <v>5.553617333333334</v>
       </c>
       <c r="N7">
-        <v>2.304192956512</v>
+        <v>16.660852</v>
       </c>
       <c r="O7">
-        <v>0.2896470974634382</v>
+        <v>0.6738463085322981</v>
       </c>
       <c r="P7">
-        <v>0.2896470974634382</v>
+        <v>0.6738463085322983</v>
       </c>
       <c r="Q7">
-        <v>4.092129770538945</v>
+        <v>10.568111710416</v>
       </c>
       <c r="R7">
-        <v>4.092129770538945</v>
+        <v>95.113005393744</v>
       </c>
       <c r="S7">
-        <v>0.1071685598366492</v>
+        <v>0.2450633690512994</v>
       </c>
       <c r="T7">
-        <v>0.1071685598366492</v>
+        <v>0.2450633690512994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0681846043648804</v>
+        <v>2.371913666666666</v>
       </c>
       <c r="N8">
-        <v>0.0681846043648804</v>
+        <v>7.115741</v>
       </c>
       <c r="O8">
-        <v>0.008571101951407962</v>
+        <v>0.2877953543625453</v>
       </c>
       <c r="P8">
-        <v>0.008571101951407962</v>
+        <v>0.2877953543625454</v>
       </c>
       <c r="Q8">
-        <v>0.1210923975031662</v>
+        <v>4.513571442227999</v>
       </c>
       <c r="R8">
-        <v>0.1210923975031662</v>
+        <v>40.622142980052</v>
       </c>
       <c r="S8">
-        <v>0.003171282089099589</v>
+        <v>0.104664963277776</v>
       </c>
       <c r="T8">
-        <v>0.003171282089099589</v>
+        <v>0.1046649632777761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.11520335201564</v>
+        <v>0.075423</v>
       </c>
       <c r="N9">
-        <v>0.11520335201564</v>
+        <v>0.226269</v>
       </c>
       <c r="O9">
-        <v>0.01448156346241964</v>
+        <v>0.009151424572122395</v>
       </c>
       <c r="P9">
-        <v>0.01448156346241964</v>
+        <v>0.009151424572122398</v>
       </c>
       <c r="Q9">
-        <v>0.2045953074879227</v>
+        <v>0.143524236852</v>
       </c>
       <c r="R9">
-        <v>0.2045953074879227</v>
+        <v>1.291718131668</v>
       </c>
       <c r="S9">
-        <v>0.005358135172220927</v>
+        <v>0.003328175741064649</v>
       </c>
       <c r="T9">
-        <v>0.005358135172220927</v>
+        <v>0.00332817574106465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.99674530184207</v>
+        <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>1.99674530184207</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.4159971277337178</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J10">
-        <v>0.4159971277337178</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.4675927335579</v>
+        <v>0.11184</v>
       </c>
       <c r="N10">
-        <v>5.4675927335579</v>
+        <v>0.33552</v>
       </c>
       <c r="O10">
-        <v>0.6873002371227342</v>
+        <v>0.01357006913204418</v>
       </c>
       <c r="P10">
-        <v>0.6873002371227342</v>
+        <v>0.01357006913204419</v>
       </c>
       <c r="Q10">
-        <v>10.91739010311758</v>
+        <v>0.21282302016</v>
       </c>
       <c r="R10">
-        <v>10.91739010311758</v>
+        <v>1.91540718144</v>
       </c>
       <c r="S10">
-        <v>0.2859149245337606</v>
+        <v>0.004935141467200593</v>
       </c>
       <c r="T10">
-        <v>0.2859149245337606</v>
+        <v>0.004935141467200594</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.99674530184207</v>
+        <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>1.99674530184207</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.4159971277337178</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J11">
-        <v>0.4159971277337178</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.304192956512</v>
+        <v>0.1288736666666667</v>
       </c>
       <c r="N11">
-        <v>2.304192956512</v>
+        <v>0.386621</v>
       </c>
       <c r="O11">
-        <v>0.2896470974634382</v>
+        <v>0.01563684340098967</v>
       </c>
       <c r="P11">
-        <v>0.2896470974634382</v>
+        <v>0.01563684340098968</v>
       </c>
       <c r="Q11">
-        <v>4.600886460452925</v>
+        <v>0.245236793268</v>
       </c>
       <c r="R11">
-        <v>4.600886460452925</v>
+        <v>2.207131139412</v>
       </c>
       <c r="S11">
-        <v>0.1204923606011985</v>
+        <v>0.005686782693104914</v>
       </c>
       <c r="T11">
-        <v>0.1204923606011985</v>
+        <v>0.005686782693104914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H12">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0681846043648804</v>
+        <v>5.553617333333334</v>
       </c>
       <c r="N12">
-        <v>0.0681846043648804</v>
+        <v>16.660852</v>
       </c>
       <c r="O12">
-        <v>0.008571101951407962</v>
+        <v>0.6738463085322981</v>
       </c>
       <c r="P12">
-        <v>0.008571101951407962</v>
+        <v>0.6738463085322983</v>
       </c>
       <c r="Q12">
-        <v>0.1361472884235352</v>
+        <v>12.16023013235911</v>
       </c>
       <c r="R12">
-        <v>0.1361472884235352</v>
+        <v>109.442071191232</v>
       </c>
       <c r="S12">
-        <v>0.003565553793298576</v>
+        <v>0.281982916753039</v>
       </c>
       <c r="T12">
-        <v>0.003565553793298576</v>
+        <v>0.2819829167530391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.189605333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.568816</v>
+      </c>
+      <c r="I13">
+        <v>0.4184677027722017</v>
+      </c>
+      <c r="J13">
+        <v>0.4184677027722016</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.371913666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.115741</v>
+      </c>
+      <c r="O13">
+        <v>0.2877953543625453</v>
+      </c>
+      <c r="P13">
+        <v>0.2877953543625454</v>
+      </c>
+      <c r="Q13">
+        <v>5.193554814739555</v>
+      </c>
+      <c r="R13">
+        <v>46.741993332656</v>
+      </c>
+      <c r="S13">
+        <v>0.1204330608086061</v>
+      </c>
+      <c r="T13">
+        <v>0.1204330608086061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.99674530184207</v>
-      </c>
-      <c r="H13">
-        <v>1.99674530184207</v>
-      </c>
-      <c r="I13">
-        <v>0.4159971277337178</v>
-      </c>
-      <c r="J13">
-        <v>0.4159971277337178</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.11520335201564</v>
-      </c>
-      <c r="N13">
-        <v>0.11520335201564</v>
-      </c>
-      <c r="O13">
-        <v>0.01448156346241964</v>
-      </c>
-      <c r="P13">
-        <v>0.01448156346241964</v>
-      </c>
-      <c r="Q13">
-        <v>0.2300317518936873</v>
-      </c>
-      <c r="R13">
-        <v>0.2300317518936873</v>
-      </c>
-      <c r="S13">
-        <v>0.006024288805460122</v>
-      </c>
-      <c r="T13">
-        <v>0.006024288805460122</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.189605333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.568816</v>
+      </c>
+      <c r="I14">
+        <v>0.4184677027722017</v>
+      </c>
+      <c r="J14">
+        <v>0.4184677027722016</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.075423</v>
+      </c>
+      <c r="N14">
+        <v>0.226269</v>
+      </c>
+      <c r="O14">
+        <v>0.009151424572122395</v>
+      </c>
+      <c r="P14">
+        <v>0.009151424572122398</v>
+      </c>
+      <c r="Q14">
+        <v>0.165146603056</v>
+      </c>
+      <c r="R14">
+        <v>1.486319427504</v>
+      </c>
+      <c r="S14">
+        <v>0.003829575617789137</v>
+      </c>
+      <c r="T14">
+        <v>0.003829575617789138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.189605333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.568816</v>
+      </c>
+      <c r="I15">
+        <v>0.4184677027722017</v>
+      </c>
+      <c r="J15">
+        <v>0.4184677027722016</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.11184</v>
+      </c>
+      <c r="N15">
+        <v>0.33552</v>
+      </c>
+      <c r="O15">
+        <v>0.01357006913204418</v>
+      </c>
+      <c r="P15">
+        <v>0.01357006913204419</v>
+      </c>
+      <c r="Q15">
+        <v>0.24488546048</v>
+      </c>
+      <c r="R15">
+        <v>2.20396914432</v>
+      </c>
+      <c r="S15">
+        <v>0.005678635656146494</v>
+      </c>
+      <c r="T15">
+        <v>0.005678635656146496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.189605333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.568816</v>
+      </c>
+      <c r="I16">
+        <v>0.4184677027722017</v>
+      </c>
+      <c r="J16">
+        <v>0.4184677027722016</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1288736666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.386621</v>
+      </c>
+      <c r="O16">
+        <v>0.01563684340098967</v>
+      </c>
+      <c r="P16">
+        <v>0.01563684340098968</v>
+      </c>
+      <c r="Q16">
+        <v>0.2821824678595555</v>
+      </c>
+      <c r="R16">
+        <v>2.539642210736</v>
+      </c>
+      <c r="S16">
+        <v>0.006543513936620809</v>
+      </c>
+      <c r="T16">
+        <v>0.00654351393662081</v>
       </c>
     </row>
   </sheetData>
